--- a/template.xlsx
+++ b/template.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan7\Desktop\Image-Upscaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89932962-6E17-468D-AD6E-539AAECC442A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07741E65-D784-4A14-BEF8-2CC356334AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+  <si>
+    <t>INTERPOLATION METHODS</t>
+  </si>
+  <si>
+    <t>PSNR</t>
+  </si>
   <si>
     <t>Nearest Neighbor</t>
   </si>
@@ -39,20 +40,7 @@
     <t>Lanczos</t>
   </si>
   <si>
-    <t>PSNR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SSIM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nearest Neighbor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTERPOLATION METHODS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -69,20 +57,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="30"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -94,16 +82,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="30"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="30"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -123,7 +108,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -141,30 +133,32 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -172,14 +166,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -187,38 +181,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -265,20 +264,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -308,12 +307,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -352,224 +351,468 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B11"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" width="22.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.69921875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
+    <row r="17" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+    <row r="18" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="10"/>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
+    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
+    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="10"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="10"/>
+      <c r="B36" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="21" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.45">
+      <c r="A43" s="9"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="21" x14ac:dyDescent="0.45">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.45">
+      <c r="A45" s="9"/>
+      <c r="B45" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="21" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="21" x14ac:dyDescent="0.45">
+      <c r="A48" s="10"/>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="21" x14ac:dyDescent="0.45">
+      <c r="A49" s="10"/>
+      <c r="B49" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="21" x14ac:dyDescent="0.45">
+      <c r="A50" s="11"/>
+      <c r="B50" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A47:A50"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan7\Desktop\Image-Upscaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07741E65-D784-4A14-BEF8-2CC356334AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927ADAE-4D66-4286-8C5C-1134287ED15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
   <si>
     <t>INTERPOLATION METHODS</t>
   </si>
@@ -41,6 +41,10 @@
   </si>
   <si>
     <t>SSIM</t>
+  </si>
+  <si>
+    <t>VIF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -181,36 +185,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,300 +519,442 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-    </row>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+    <row r="21" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
+    <row r="39" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="9"/>
-      <c r="B31" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="9"/>
-      <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="8" t="s">
+      <c r="B39" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="10"/>
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="10"/>
-      <c r="B36" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4" t="s">
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8"/>
+      <c r="B50" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A51" s="8"/>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A42" s="8" t="s">
+    <row r="57" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A43" s="9"/>
-      <c r="B43" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A44" s="9"/>
-      <c r="B44" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A47" s="8" t="s">
+      <c r="B57" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A58" s="7"/>
+      <c r="B58" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A59" s="7"/>
+      <c r="B59" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A60" s="7"/>
+      <c r="B60" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A48" s="10"/>
-      <c r="B48" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A49" s="10"/>
-      <c r="B49" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="21" x14ac:dyDescent="0.45">
-      <c r="A50" s="11"/>
-      <c r="B50" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B62" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A63" s="8"/>
+      <c r="B63" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A64" s="8"/>
+      <c r="B64" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A65" s="9"/>
+      <c r="B65" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="8"/>
+      <c r="B68" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A69" s="8"/>
+      <c r="B69" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A70" s="9"/>
+      <c r="B70" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A47:A50"/>
+  <mergeCells count="12">
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A49:A52"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan7\Desktop\Image-Upscaling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan7\Desktop\Image Interpolation research\Image-Upscaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927ADAE-4D66-4286-8C5C-1134287ED15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7A73F0-05CF-46B0-B0ED-70B91EE6E5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
   <si>
     <t>INTERPOLATION METHODS</t>
   </si>
@@ -42,16 +42,12 @@
   <si>
     <t>SSIM</t>
   </si>
-  <si>
-    <t>VIF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,12 +77,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="30"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -183,37 +173,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -519,445 +499,273 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.69921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6" t="s">
+    <row r="17" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6" t="s">
+    <row r="18" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6" t="s">
+    <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6" t="s">
+    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="6"/>
+      <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6" t="s">
+    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="6"/>
+      <c r="B31" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6" t="s">
+    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6" t="s">
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="6" t="s">
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
+      <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6" t="s">
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="7"/>
+      <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="41" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6" t="s">
+    <row r="43" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="6"/>
+      <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="6" t="s">
+    <row r="44" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="6" t="s">
+    <row r="45" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="7"/>
+      <c r="B45" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="6" t="s">
+    <row r="47" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6" t="s">
+    <row r="48" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="6"/>
+      <c r="B48" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6" t="s">
+    <row r="49" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="6"/>
+      <c r="B49" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6" t="s">
+    <row r="50" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="7"/>
+      <c r="B50" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="9"/>
-      <c r="B47" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
-      <c r="B58" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A59" s="7"/>
-      <c r="B59" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A60" s="7"/>
-      <c r="B60" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A65" s="9"/>
-      <c r="B65" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B87" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A49:A52"/>
+  <mergeCells count="8">
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A47:A50"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>